--- a/2021/data/processed/GLOS.xlsx
+++ b/2021/data/processed/GLOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathew.Biddle\Documents\GitProjects\ioos-asset-inventory\2021\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E49D3B0-2A4C-4CBD-9B0C-95C9FC50A085}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FB0E6B-2E14-4E43-8F02-44F5B2174526}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RT In-situ observing stations" sheetId="1" r:id="rId1"/>
@@ -3257,29 +3257,29 @@
   <dimension ref="A1:X962"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="37.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="37.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
     <col min="14" max="14" width="101" customWidth="1"/>
-    <col min="15" max="15" width="43.140625" customWidth="1"/>
-    <col min="16" max="24" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="43.109375" customWidth="1"/>
+    <col min="16" max="24" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42" customHeight="1">
@@ -3338,7 +3338,7 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
     </row>
-    <row r="2" spans="1:24" ht="126">
+    <row r="2" spans="1:24" ht="124.8">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>34</v>
@@ -4020,7 +4020,7 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
     </row>
-    <row r="15" spans="1:24" ht="110.25">
+    <row r="15" spans="1:24" ht="109.2">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>102</v>
@@ -4072,7 +4072,7 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" ht="157.5">
+    <row r="16" spans="1:24" ht="156">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
         <v>107</v>
@@ -4124,7 +4124,7 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" ht="63">
+    <row r="17" spans="1:24" ht="62.4">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8">
@@ -4176,7 +4176,7 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" ht="78.75">
+    <row r="18" spans="1:24" ht="78">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>116</v>
@@ -4228,7 +4228,7 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" ht="94.5">
+    <row r="19" spans="1:24" ht="93.6">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
         <v>122</v>
@@ -4280,7 +4280,7 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" ht="110.25">
+    <row r="20" spans="1:24" ht="109.2">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9">
@@ -4330,7 +4330,7 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" ht="78.75">
+    <row r="21" spans="1:24" ht="78">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
         <v>129</v>
@@ -4382,7 +4382,7 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" ht="47.25">
+    <row r="22" spans="1:24" ht="46.8">
       <c r="A22" s="7"/>
       <c r="B22" s="8" t="s">
         <v>134</v>
@@ -4434,7 +4434,7 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" ht="78.75">
+    <row r="23" spans="1:24" ht="78">
       <c r="A23" s="7"/>
       <c r="B23" s="8" t="s">
         <v>139</v>
@@ -4486,7 +4486,7 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" ht="157.5">
+    <row r="24" spans="1:24" ht="156">
       <c r="A24" s="7"/>
       <c r="B24" s="8" t="s">
         <v>143</v>
@@ -4540,7 +4540,7 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" ht="157.5">
+    <row r="25" spans="1:24" ht="156">
       <c r="A25" s="16"/>
       <c r="B25" s="17" t="s">
         <v>147</v>
@@ -4592,7 +4592,7 @@
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
     </row>
-    <row r="26" spans="1:24" ht="63">
+    <row r="26" spans="1:24" ht="62.4">
       <c r="A26" s="16" t="s">
         <v>153</v>
       </c>
@@ -4644,7 +4644,7 @@
       <c r="W26" s="16"/>
       <c r="X26" s="16"/>
     </row>
-    <row r="27" spans="1:24" ht="94.5">
+    <row r="27" spans="1:24" ht="93.6">
       <c r="A27" s="7"/>
       <c r="B27" s="8" t="s">
         <v>158</v>
@@ -4696,7 +4696,7 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
     </row>
-    <row r="28" spans="1:24" ht="78.75">
+    <row r="28" spans="1:24" ht="78">
       <c r="A28" s="23"/>
       <c r="B28" s="8" t="s">
         <v>162</v>
@@ -4748,7 +4748,7 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
     </row>
-    <row r="29" spans="1:24" ht="78.75">
+    <row r="29" spans="1:24" ht="78">
       <c r="A29" s="23"/>
       <c r="B29" s="8" t="s">
         <v>167</v>
@@ -4800,7 +4800,7 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
     </row>
-    <row r="30" spans="1:24" ht="78.75">
+    <row r="30" spans="1:24" ht="78">
       <c r="A30" s="23"/>
       <c r="B30" s="8" t="s">
         <v>170</v>
@@ -4850,7 +4850,7 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
     </row>
-    <row r="31" spans="1:24" ht="78.75">
+    <row r="31" spans="1:24" ht="78">
       <c r="A31" s="23"/>
       <c r="B31" s="8" t="s">
         <v>174</v>
@@ -4900,7 +4900,7 @@
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
     </row>
-    <row r="32" spans="1:24" ht="78.75">
+    <row r="32" spans="1:24" ht="78">
       <c r="A32" s="35" t="s">
         <v>177</v>
       </c>
@@ -4950,7 +4950,7 @@
       <c r="W32" s="37"/>
       <c r="X32" s="37"/>
     </row>
-    <row r="33" spans="1:24" ht="78.75">
+    <row r="33" spans="1:24" ht="78">
       <c r="A33" s="23" t="s">
         <v>180</v>
       </c>
@@ -5002,7 +5002,7 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
     </row>
-    <row r="34" spans="1:24" ht="78.75">
+    <row r="34" spans="1:24" ht="78">
       <c r="A34" s="23" t="s">
         <v>185</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
     </row>
-    <row r="35" spans="1:24" ht="78.75">
+    <row r="35" spans="1:24" ht="78">
       <c r="A35" s="23" t="s">
         <v>191</v>
       </c>
@@ -5108,7 +5108,7 @@
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
     </row>
-    <row r="36" spans="1:24" ht="94.5">
+    <row r="36" spans="1:24" ht="93.6">
       <c r="A36" s="42" t="s">
         <v>195</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
     </row>
-    <row r="37" spans="1:24" ht="110.25">
+    <row r="37" spans="1:24" ht="109.2">
       <c r="A37" s="42" t="s">
         <v>201</v>
       </c>
@@ -5220,7 +5220,7 @@
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
     </row>
-    <row r="38" spans="1:24" ht="78.75">
+    <row r="38" spans="1:24" ht="78">
       <c r="A38" s="23" t="s">
         <v>206</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
     </row>
-    <row r="39" spans="1:24" ht="94.5">
+    <row r="39" spans="1:24" ht="93.6">
       <c r="A39" s="23" t="s">
         <v>210</v>
       </c>
@@ -5324,7 +5324,7 @@
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
     </row>
-    <row r="40" spans="1:24" ht="94.5">
+    <row r="40" spans="1:24" ht="93.6">
       <c r="A40" s="23" t="s">
         <v>214</v>
       </c>
@@ -5376,7 +5376,7 @@
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
     </row>
-    <row r="41" spans="1:24" ht="94.5">
+    <row r="41" spans="1:24" ht="93.6">
       <c r="A41" s="47" t="s">
         <v>218</v>
       </c>
@@ -5432,7 +5432,7 @@
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
     </row>
-    <row r="42" spans="1:24" ht="47.25">
+    <row r="42" spans="1:24" ht="46.8">
       <c r="A42" s="23"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
@@ -5482,7 +5482,7 @@
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
     </row>
-    <row r="43" spans="1:24" ht="63">
+    <row r="43" spans="1:24" ht="62.4">
       <c r="A43" s="23" t="s">
         <v>229</v>
       </c>
@@ -5536,7 +5536,7 @@
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
     </row>
-    <row r="44" spans="1:24" ht="63">
+    <row r="44" spans="1:24" ht="62.4">
       <c r="A44" s="23" t="s">
         <v>235</v>
       </c>
@@ -5590,7 +5590,7 @@
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
     </row>
-    <row r="45" spans="1:24" ht="63">
+    <row r="45" spans="1:24" ht="62.4">
       <c r="A45" s="7" t="s">
         <v>240</v>
       </c>
@@ -5644,7 +5644,7 @@
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
     </row>
-    <row r="46" spans="1:24" ht="47.25">
+    <row r="46" spans="1:24" ht="46.8">
       <c r="A46" s="23" t="s">
         <v>245</v>
       </c>
@@ -5698,7 +5698,7 @@
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
     </row>
-    <row r="47" spans="1:24" ht="63">
+    <row r="47" spans="1:24" ht="62.4">
       <c r="A47" s="7" t="s">
         <v>250</v>
       </c>
@@ -5750,7 +5750,7 @@
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
     </row>
-    <row r="48" spans="1:24" ht="63">
+    <row r="48" spans="1:24" ht="62.4">
       <c r="A48" s="23" t="s">
         <v>256</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
     </row>
-    <row r="49" spans="1:24" ht="47.25">
+    <row r="49" spans="1:24" ht="46.8">
       <c r="A49" s="23" t="s">
         <v>260</v>
       </c>
@@ -5858,7 +5858,7 @@
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
     </row>
-    <row r="50" spans="1:24" ht="63">
+    <row r="50" spans="1:24" ht="62.4">
       <c r="A50" s="23" t="s">
         <v>265</v>
       </c>
@@ -5912,7 +5912,7 @@
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
     </row>
-    <row r="51" spans="1:24" ht="47.25">
+    <row r="51" spans="1:24" ht="46.8">
       <c r="A51" s="23" t="s">
         <v>269</v>
       </c>
@@ -5966,7 +5966,7 @@
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
     </row>
-    <row r="52" spans="1:24" ht="78.75">
+    <row r="52" spans="1:24" ht="78">
       <c r="A52" s="21" t="s">
         <v>274</v>
       </c>
@@ -6014,7 +6014,7 @@
       <c r="W52" s="37"/>
       <c r="X52" s="37"/>
     </row>
-    <row r="53" spans="1:24" ht="63">
+    <row r="53" spans="1:24" ht="62.4">
       <c r="A53" s="22" t="s">
         <v>277</v>
       </c>
@@ -6068,7 +6068,7 @@
       <c r="W53" s="16"/>
       <c r="X53" s="16"/>
     </row>
-    <row r="54" spans="1:24" ht="78.75">
+    <row r="54" spans="1:24" ht="78">
       <c r="A54" s="21" t="s">
         <v>284</v>
       </c>
@@ -6120,7 +6120,7 @@
       <c r="W54" s="16"/>
       <c r="X54" s="16"/>
     </row>
-    <row r="55" spans="1:24" ht="78.75">
+    <row r="55" spans="1:24" ht="78">
       <c r="A55" s="23" t="s">
         <v>288</v>
       </c>
@@ -6276,7 +6276,7 @@
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
     </row>
-    <row r="58" spans="1:24" ht="78.75">
+    <row r="58" spans="1:24" ht="78">
       <c r="A58" s="53" t="s">
         <v>301</v>
       </c>
@@ -6382,7 +6382,7 @@
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
     </row>
-    <row r="60" spans="1:24" ht="78.75">
+    <row r="60" spans="1:24" ht="78">
       <c r="A60" s="23" t="s">
         <v>311</v>
       </c>
@@ -6434,7 +6434,7 @@
       <c r="W60" s="7"/>
       <c r="X60" s="7"/>
     </row>
-    <row r="61" spans="1:24" ht="47.25">
+    <row r="61" spans="1:24" ht="46.8">
       <c r="A61" s="23" t="s">
         <v>316</v>
       </c>
@@ -6488,7 +6488,7 @@
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
     </row>
-    <row r="62" spans="1:24" ht="110.25">
+    <row r="62" spans="1:24" ht="109.2">
       <c r="A62" s="23" t="s">
         <v>320</v>
       </c>
@@ -6592,7 +6592,7 @@
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
     </row>
-    <row r="64" spans="1:24" ht="47.25">
+    <row r="64" spans="1:24" ht="46.8">
       <c r="A64" s="23"/>
       <c r="B64" s="8" t="s">
         <v>329</v>
@@ -6644,7 +6644,7 @@
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
     </row>
-    <row r="65" spans="1:24" ht="47.25">
+    <row r="65" spans="1:24" ht="46.8">
       <c r="A65" s="12" t="s">
         <v>335</v>
       </c>
@@ -6696,7 +6696,7 @@
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
     </row>
-    <row r="66" spans="1:24" ht="47.25">
+    <row r="66" spans="1:24" ht="46.8">
       <c r="A66" s="12" t="s">
         <v>340</v>
       </c>
@@ -6748,7 +6748,7 @@
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
     </row>
-    <row r="67" spans="1:24" ht="47.25">
+    <row r="67" spans="1:24" ht="46.8">
       <c r="A67" s="7" t="s">
         <v>342</v>
       </c>
@@ -6798,7 +6798,7 @@
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
     </row>
-    <row r="68" spans="1:24" ht="94.5">
+    <row r="68" spans="1:24" ht="93.6">
       <c r="A68" s="7" t="s">
         <v>346</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
     </row>
-    <row r="69" spans="1:24" ht="78.75">
+    <row r="69" spans="1:24" ht="78">
       <c r="A69" s="12" t="s">
         <v>351</v>
       </c>
@@ -6954,7 +6954,7 @@
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
     </row>
-    <row r="71" spans="1:24" ht="47.25">
+    <row r="71" spans="1:24" ht="46.8">
       <c r="A71" s="58" t="s">
         <v>362</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="W71" s="63"/>
       <c r="X71" s="63"/>
     </row>
-    <row r="72" spans="1:24" ht="157.5">
+    <row r="72" spans="1:24" ht="156">
       <c r="A72" s="64"/>
       <c r="B72" s="58" t="s">
         <v>367</v>
@@ -7058,7 +7058,7 @@
       <c r="W72" s="63"/>
       <c r="X72" s="63"/>
     </row>
-    <row r="73" spans="1:24" ht="157.5">
+    <row r="73" spans="1:24" ht="156">
       <c r="A73" s="64"/>
       <c r="B73" s="58" t="s">
         <v>371</v>
@@ -7110,7 +7110,7 @@
       <c r="W73" s="63"/>
       <c r="X73" s="63"/>
     </row>
-    <row r="74" spans="1:24" ht="94.5">
+    <row r="74" spans="1:24" ht="93.6">
       <c r="A74" s="58" t="s">
         <v>373</v>
       </c>
@@ -7160,7 +7160,7 @@
       <c r="W74" s="63"/>
       <c r="X74" s="63"/>
     </row>
-    <row r="75" spans="1:24" ht="63">
+    <row r="75" spans="1:24" ht="62.4">
       <c r="A75" s="58" t="s">
         <v>377</v>
       </c>
@@ -7210,7 +7210,7 @@
       <c r="W75" s="63"/>
       <c r="X75" s="63"/>
     </row>
-    <row r="76" spans="1:24" ht="63">
+    <row r="76" spans="1:24" ht="62.4">
       <c r="A76" s="58" t="s">
         <v>380</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="W76" s="63"/>
       <c r="X76" s="63"/>
     </row>
-    <row r="77" spans="1:24" ht="78.75">
+    <row r="77" spans="1:24" ht="78">
       <c r="A77" s="58" t="s">
         <v>385</v>
       </c>
@@ -7312,7 +7312,7 @@
       <c r="W77" s="63"/>
       <c r="X77" s="63"/>
     </row>
-    <row r="78" spans="1:24" ht="63">
+    <row r="78" spans="1:24" ht="62.4">
       <c r="A78" s="64"/>
       <c r="B78" s="58" t="s">
         <v>388</v>
@@ -7364,7 +7364,7 @@
       <c r="W78" s="63"/>
       <c r="X78" s="63"/>
     </row>
-    <row r="79" spans="1:24" ht="47.25">
+    <row r="79" spans="1:24" ht="46.8">
       <c r="A79" s="58" t="s">
         <v>392</v>
       </c>
@@ -7414,7 +7414,7 @@
       <c r="W79" s="63"/>
       <c r="X79" s="63"/>
     </row>
-    <row r="80" spans="1:24" ht="63">
+    <row r="80" spans="1:24" ht="62.4">
       <c r="A80" s="58" t="s">
         <v>396</v>
       </c>
@@ -7466,7 +7466,7 @@
       <c r="W80" s="63"/>
       <c r="X80" s="63"/>
     </row>
-    <row r="81" spans="1:24" ht="31.5">
+    <row r="81" spans="1:24" ht="31.2">
       <c r="A81" s="66"/>
       <c r="B81" s="67"/>
       <c r="C81" s="67" t="s">
@@ -8218,7 +8218,7 @@
       <c r="W96" s="7"/>
       <c r="X96" s="7"/>
     </row>
-    <row r="97" spans="1:24" ht="15.75">
+    <row r="97" spans="1:24" ht="15.6">
       <c r="A97" s="7"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -30753,11 +30753,13 @@
   </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="13" max="13" width="37.7109375" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" customWidth="1"/>
     <col min="14" max="14" width="54" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30867,7 +30869,7 @@
       <c r="V2" s="85"/>
       <c r="W2" s="85"/>
     </row>
-    <row r="3" spans="1:26" ht="63">
+    <row r="3" spans="1:26" ht="62.4">
       <c r="A3" s="89" t="s">
         <v>449</v>
       </c>
@@ -30923,7 +30925,7 @@
       <c r="Y3" s="96"/>
       <c r="Z3" s="96"/>
     </row>
-    <row r="4" spans="1:26" ht="63">
+    <row r="4" spans="1:26" ht="62.4">
       <c r="A4" s="89" t="s">
         <v>454</v>
       </c>
@@ -30979,7 +30981,7 @@
       <c r="Y4" s="96"/>
       <c r="Z4" s="96"/>
     </row>
-    <row r="5" spans="1:26" ht="63">
+    <row r="5" spans="1:26" ht="62.4">
       <c r="A5" s="89" t="s">
         <v>456</v>
       </c>
@@ -31035,7 +31037,7 @@
       <c r="Y5" s="96"/>
       <c r="Z5" s="96"/>
     </row>
-    <row r="6" spans="1:26" ht="63">
+    <row r="6" spans="1:26" ht="62.4">
       <c r="A6" s="89" t="s">
         <v>457</v>
       </c>
@@ -31091,7 +31093,7 @@
       <c r="Y6" s="96"/>
       <c r="Z6" s="96"/>
     </row>
-    <row r="7" spans="1:26" ht="63">
+    <row r="7" spans="1:26" ht="62.4">
       <c r="A7" s="89" t="s">
         <v>459</v>
       </c>
@@ -31147,7 +31149,7 @@
       <c r="Y7" s="96"/>
       <c r="Z7" s="96"/>
     </row>
-    <row r="8" spans="1:26" ht="63">
+    <row r="8" spans="1:26" ht="62.4">
       <c r="A8" s="89" t="s">
         <v>460</v>
       </c>
@@ -31203,7 +31205,7 @@
       <c r="Y8" s="96"/>
       <c r="Z8" s="96"/>
     </row>
-    <row r="9" spans="1:26" ht="63">
+    <row r="9" spans="1:26" ht="62.4">
       <c r="A9" s="89" t="s">
         <v>461</v>
       </c>
@@ -31259,7 +31261,7 @@
       <c r="Y9" s="96"/>
       <c r="Z9" s="96"/>
     </row>
-    <row r="10" spans="1:26" ht="63">
+    <row r="10" spans="1:26" ht="62.4">
       <c r="A10" s="89" t="s">
         <v>462</v>
       </c>
@@ -31315,7 +31317,7 @@
       <c r="Y10" s="96"/>
       <c r="Z10" s="96"/>
     </row>
-    <row r="11" spans="1:26" ht="63">
+    <row r="11" spans="1:26" ht="62.4">
       <c r="A11" s="89" t="s">
         <v>464</v>
       </c>
@@ -31371,7 +31373,7 @@
       <c r="Y11" s="96"/>
       <c r="Z11" s="96"/>
     </row>
-    <row r="12" spans="1:26" ht="63">
+    <row r="12" spans="1:26" ht="62.4">
       <c r="A12" s="89" t="s">
         <v>465</v>
       </c>
@@ -31427,7 +31429,7 @@
       <c r="Y12" s="96"/>
       <c r="Z12" s="96"/>
     </row>
-    <row r="13" spans="1:26" ht="63">
+    <row r="13" spans="1:26" ht="62.4">
       <c r="A13" s="89" t="s">
         <v>466</v>
       </c>
@@ -31483,7 +31485,7 @@
       <c r="Y13" s="96"/>
       <c r="Z13" s="96"/>
     </row>
-    <row r="14" spans="1:26" ht="63">
+    <row r="14" spans="1:26" ht="62.4">
       <c r="A14" s="89" t="s">
         <v>468</v>
       </c>
@@ -31539,7 +31541,7 @@
       <c r="Y14" s="96"/>
       <c r="Z14" s="96"/>
     </row>
-    <row r="15" spans="1:26" ht="63">
+    <row r="15" spans="1:26" ht="62.4">
       <c r="A15" s="89" t="s">
         <v>469</v>
       </c>
@@ -31595,7 +31597,7 @@
       <c r="Y15" s="96"/>
       <c r="Z15" s="96"/>
     </row>
-    <row r="16" spans="1:26" ht="126">
+    <row r="16" spans="1:26" ht="124.8">
       <c r="A16" s="58" t="s">
         <v>414</v>
       </c>
@@ -31643,7 +31645,7 @@
       <c r="U16" s="99"/>
       <c r="V16" s="99"/>
     </row>
-    <row r="17" spans="1:26" ht="126">
+    <row r="17" spans="1:26" ht="124.8">
       <c r="A17" s="58" t="s">
         <v>419</v>
       </c>
@@ -31691,7 +31693,7 @@
       <c r="U17" s="99"/>
       <c r="V17" s="99"/>
     </row>
-    <row r="18" spans="1:26" ht="126">
+    <row r="18" spans="1:26" ht="124.8">
       <c r="A18" s="58" t="s">
         <v>422</v>
       </c>
@@ -31739,7 +31741,7 @@
       <c r="U18" s="99"/>
       <c r="V18" s="99"/>
     </row>
-    <row r="19" spans="1:26" ht="126">
+    <row r="19" spans="1:26" ht="124.8">
       <c r="A19" s="58" t="s">
         <v>424</v>
       </c>
@@ -31787,7 +31789,7 @@
       <c r="U19" s="99"/>
       <c r="V19" s="99"/>
     </row>
-    <row r="20" spans="1:26" ht="126">
+    <row r="20" spans="1:26" ht="124.8">
       <c r="A20" s="58" t="s">
         <v>426</v>
       </c>
@@ -31835,7 +31837,7 @@
       <c r="U20" s="99"/>
       <c r="V20" s="99"/>
     </row>
-    <row r="21" spans="1:26" ht="126">
+    <row r="21" spans="1:26" ht="124.8">
       <c r="A21" s="58" t="s">
         <v>428</v>
       </c>
@@ -31883,7 +31885,7 @@
       <c r="U21" s="99"/>
       <c r="V21" s="99"/>
     </row>
-    <row r="22" spans="1:26" ht="126">
+    <row r="22" spans="1:26" ht="124.8">
       <c r="A22" s="58" t="s">
         <v>430</v>
       </c>
@@ -31931,7 +31933,7 @@
       <c r="U22" s="99"/>
       <c r="V22" s="99"/>
     </row>
-    <row r="23" spans="1:26" ht="126">
+    <row r="23" spans="1:26" ht="124.8">
       <c r="A23" s="58" t="s">
         <v>433</v>
       </c>
@@ -31979,7 +31981,7 @@
       <c r="U23" s="99"/>
       <c r="V23" s="99"/>
     </row>
-    <row r="24" spans="1:26" ht="126">
+    <row r="24" spans="1:26" ht="124.8">
       <c r="A24" s="58" t="s">
         <v>436</v>
       </c>
@@ -32027,7 +32029,7 @@
       <c r="U24" s="99"/>
       <c r="V24" s="99"/>
     </row>
-    <row r="25" spans="1:26" ht="126">
+    <row r="25" spans="1:26" ht="124.8">
       <c r="A25" s="58" t="s">
         <v>439</v>
       </c>
@@ -32075,7 +32077,7 @@
       <c r="U25" s="99"/>
       <c r="V25" s="99"/>
     </row>
-    <row r="26" spans="1:26" ht="126">
+    <row r="26" spans="1:26" ht="124.8">
       <c r="A26" s="100">
         <v>4176500</v>
       </c>
@@ -32123,7 +32125,7 @@
       <c r="U26" s="99"/>
       <c r="V26" s="99"/>
     </row>
-    <row r="27" spans="1:26" ht="78.75">
+    <row r="27" spans="1:26" ht="78">
       <c r="A27" s="58" t="s">
         <v>442</v>
       </c>
@@ -32191,20 +32193,20 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1"/>
     <col min="15" max="15" width="50" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" customHeight="1">
@@ -32525,7 +32527,7 @@
       <c r="X6" s="123"/>
       <c r="Y6" s="124"/>
     </row>
-    <row r="7" spans="1:25" ht="90">
+    <row r="7" spans="1:25" ht="72">
       <c r="A7" s="129" t="s">
         <v>488</v>
       </c>
@@ -32731,7 +32733,7 @@
       <c r="X10" s="137"/>
       <c r="Y10" s="142"/>
     </row>
-    <row r="11" spans="1:25" ht="60">
+    <row r="11" spans="1:25" ht="43.2">
       <c r="A11" s="144"/>
       <c r="B11" s="136"/>
       <c r="C11" s="136">
@@ -32780,7 +32782,7 @@
       <c r="X11" s="147"/>
       <c r="Y11" s="148"/>
     </row>
-    <row r="12" spans="1:25" ht="90">
+    <row r="12" spans="1:25" ht="72">
       <c r="A12" s="149" t="s">
         <v>507</v>
       </c>
@@ -32829,7 +32831,7 @@
       <c r="X12" s="147"/>
       <c r="Y12" s="148"/>
     </row>
-    <row r="13" spans="1:25" ht="90">
+    <row r="13" spans="1:25" ht="72">
       <c r="A13" s="149" t="s">
         <v>512</v>
       </c>
@@ -32878,7 +32880,7 @@
       <c r="X13" s="147"/>
       <c r="Y13" s="148"/>
     </row>
-    <row r="14" spans="1:25" ht="135">
+    <row r="14" spans="1:25" ht="115.2">
       <c r="A14" s="149" t="s">
         <v>515</v>
       </c>
@@ -32929,7 +32931,7 @@
       <c r="X14" s="156"/>
       <c r="Y14" s="96"/>
     </row>
-    <row r="15" spans="1:25" ht="120">
+    <row r="15" spans="1:25" ht="115.2">
       <c r="A15" s="149" t="s">
         <v>519</v>
       </c>
@@ -32978,7 +32980,7 @@
       <c r="X15" s="156"/>
       <c r="Y15" s="96"/>
     </row>
-    <row r="16" spans="1:25" ht="135">
+    <row r="16" spans="1:25" ht="115.2">
       <c r="A16" s="149" t="s">
         <v>523</v>
       </c>
@@ -33029,7 +33031,7 @@
       <c r="X16" s="156"/>
       <c r="Y16" s="96"/>
     </row>
-    <row r="17" spans="1:25" ht="135">
+    <row r="17" spans="1:25" ht="115.2">
       <c r="A17" s="149" t="s">
         <v>527</v>
       </c>
@@ -33080,7 +33082,7 @@
       <c r="X17" s="156"/>
       <c r="Y17" s="96"/>
     </row>
-    <row r="18" spans="1:25" ht="135">
+    <row r="18" spans="1:25" ht="115.2">
       <c r="A18" s="149" t="s">
         <v>529</v>
       </c>
@@ -33131,7 +33133,7 @@
       <c r="X18" s="156"/>
       <c r="Y18" s="96"/>
     </row>
-    <row r="19" spans="1:25" ht="135">
+    <row r="19" spans="1:25" ht="129.6">
       <c r="A19" s="149" t="s">
         <v>531</v>
       </c>
@@ -33181,7 +33183,7 @@
       <c r="W19" s="159"/>
       <c r="X19" s="159"/>
     </row>
-    <row r="20" spans="1:25" ht="135">
+    <row r="20" spans="1:25" ht="129.6">
       <c r="A20" s="149" t="s">
         <v>535</v>
       </c>
@@ -33231,7 +33233,7 @@
       <c r="W20" s="159"/>
       <c r="X20" s="159"/>
     </row>
-    <row r="21" spans="1:25" ht="135">
+    <row r="21" spans="1:25" ht="129.6">
       <c r="A21" s="149" t="s">
         <v>538</v>
       </c>
@@ -33281,7 +33283,7 @@
       <c r="W21" s="159"/>
       <c r="X21" s="159"/>
     </row>
-    <row r="22" spans="1:25" ht="165">
+    <row r="22" spans="1:25" ht="144">
       <c r="A22" s="149" t="s">
         <v>540</v>
       </c>
@@ -33331,7 +33333,7 @@
       <c r="W22" s="159"/>
       <c r="X22" s="159"/>
     </row>
-    <row r="23" spans="1:25" ht="135">
+    <row r="23" spans="1:25" ht="129.6">
       <c r="A23" s="149" t="s">
         <v>546</v>
       </c>
@@ -33382,7 +33384,7 @@
       <c r="X23" s="156"/>
       <c r="Y23" s="96"/>
     </row>
-    <row r="24" spans="1:25" ht="135">
+    <row r="24" spans="1:25" ht="129.6">
       <c r="A24" s="149" t="s">
         <v>549</v>
       </c>
@@ -33433,7 +33435,7 @@
       <c r="X24" s="156"/>
       <c r="Y24" s="96"/>
     </row>
-    <row r="25" spans="1:25" ht="135">
+    <row r="25" spans="1:25" ht="129.6">
       <c r="A25" s="149" t="s">
         <v>553</v>
       </c>
@@ -33484,7 +33486,7 @@
       <c r="X25" s="156"/>
       <c r="Y25" s="96"/>
     </row>
-    <row r="26" spans="1:25" ht="135">
+    <row r="26" spans="1:25" ht="129.6">
       <c r="A26" s="149" t="s">
         <v>556</v>
       </c>
@@ -33535,7 +33537,7 @@
       <c r="X26" s="156"/>
       <c r="Y26" s="96"/>
     </row>
-    <row r="27" spans="1:25" ht="135">
+    <row r="27" spans="1:25" ht="129.6">
       <c r="A27" s="162" t="s">
         <v>558</v>
       </c>
@@ -33586,10 +33588,10 @@
       <c r="X27" s="156"/>
       <c r="Y27" s="96"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" ht="14.4">
       <c r="Q28" s="165"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" ht="14.4">
       <c r="Q29" s="165"/>
     </row>
   </sheetData>
@@ -33613,17 +33615,17 @@
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="59.7109375" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="7" width="25.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="59.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1">
@@ -33634,7 +33636,7 @@
       <c r="C1" s="166"/>
       <c r="D1" s="166"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="14.4">
       <c r="A2" s="167" t="s">
         <v>563</v>
       </c>
@@ -33666,7 +33668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="90">
+    <row r="3" spans="1:10" ht="86.4">
       <c r="A3" s="168" t="s">
         <v>572</v>
       </c>
@@ -33698,7 +33700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="120">
+    <row r="4" spans="1:10" ht="100.8">
       <c r="A4" s="170" t="s">
         <v>581</v>
       </c>
@@ -33728,7 +33730,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="120">
+    <row r="5" spans="1:10" ht="100.8">
       <c r="A5" s="170" t="s">
         <v>581</v>
       </c>
@@ -33758,7 +33760,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="120">
+    <row r="6" spans="1:10" ht="100.8">
       <c r="A6" s="170" t="s">
         <v>581</v>
       </c>
@@ -33788,7 +33790,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="105">
+    <row r="7" spans="1:10" ht="100.8">
       <c r="A7" s="170" t="s">
         <v>589</v>
       </c>
@@ -33818,7 +33820,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="105">
+    <row r="8" spans="1:10" ht="100.8">
       <c r="A8" s="170" t="s">
         <v>594</v>
       </c>
@@ -33848,7 +33850,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="105">
+    <row r="9" spans="1:10" ht="100.8">
       <c r="A9" s="170" t="s">
         <v>597</v>
       </c>
